--- a/hlmRelationship.xlsx
+++ b/hlmRelationship.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\springbootcode\hlm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7090D50-E4BE-4D27-9EB2-73322C248020}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="183">
   <si>
     <t>小红</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -748,7 +748,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1083,20 +1083,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:D82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11:D82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="15.83203125" customWidth="1"/>
+    <col min="4" max="4" width="15.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>90</v>
       </c>
@@ -1107,7 +1107,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>82</v>
       </c>
@@ -1121,7 +1121,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>88</v>
       </c>
@@ -1135,7 +1135,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>88</v>
       </c>
@@ -1149,7 +1149,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>87</v>
       </c>
@@ -1163,7 +1163,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>87</v>
       </c>
@@ -1177,7 +1177,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>77</v>
       </c>
@@ -1191,7 +1191,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>77</v>
       </c>
@@ -1205,7 +1205,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>84</v>
       </c>
@@ -1219,7 +1219,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>82</v>
       </c>
@@ -1233,7 +1233,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>80</v>
       </c>
@@ -1247,7 +1247,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>79</v>
       </c>
@@ -1261,7 +1261,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>79</v>
       </c>
@@ -1275,7 +1275,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>79</v>
       </c>
@@ -1289,7 +1289,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>79</v>
       </c>
@@ -1303,7 +1303,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>41</v>
       </c>
@@ -1317,7 +1317,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>68</v>
       </c>
@@ -1331,7 +1331,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>64</v>
       </c>
@@ -1345,7 +1345,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>68</v>
       </c>
@@ -1359,7 +1359,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>77</v>
       </c>
@@ -1373,7 +1373,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>41</v>
       </c>
@@ -1387,7 +1387,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>41</v>
       </c>
@@ -1401,7 +1401,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>37</v>
       </c>
@@ -1415,7 +1415,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>37</v>
       </c>
@@ -1429,7 +1429,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>68</v>
       </c>
@@ -1443,7 +1443,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>72</v>
       </c>
@@ -1457,7 +1457,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>71</v>
       </c>
@@ -1471,7 +1471,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>68</v>
       </c>
@@ -1485,7 +1485,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>68</v>
       </c>
@@ -1499,7 +1499,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>68</v>
       </c>
@@ -1513,7 +1513,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>66</v>
       </c>
@@ -1527,7 +1527,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>68</v>
       </c>
@@ -1541,7 +1541,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>66</v>
       </c>
@@ -1555,7 +1555,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>64</v>
       </c>
@@ -1569,7 +1569,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>63</v>
       </c>
@@ -1583,7 +1583,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>58</v>
       </c>
@@ -1597,7 +1597,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>58</v>
       </c>
@@ -1611,7 +1611,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>58</v>
       </c>
@@ -1625,7 +1625,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>58</v>
       </c>
@@ -1639,7 +1639,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>55</v>
       </c>
@@ -1653,7 +1653,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>29</v>
       </c>
@@ -1667,7 +1667,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>53</v>
       </c>
@@ -1681,7 +1681,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>29</v>
       </c>
@@ -1695,7 +1695,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>50</v>
       </c>
@@ -1709,7 +1709,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>44</v>
       </c>
@@ -1723,7 +1723,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>44</v>
       </c>
@@ -1737,7 +1737,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>10</v>
       </c>
@@ -1751,7 +1751,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>44</v>
       </c>
@@ -1765,7 +1765,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>44</v>
       </c>
@@ -1779,7 +1779,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>41</v>
       </c>
@@ -1793,7 +1793,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>16</v>
       </c>
@@ -1807,7 +1807,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>37</v>
       </c>
@@ -1821,7 +1821,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>25</v>
       </c>
@@ -1835,7 +1835,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>34</v>
       </c>
@@ -1849,7 +1849,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>25</v>
       </c>
@@ -1863,7 +1863,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>25</v>
       </c>
@@ -1877,7 +1877,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>25</v>
       </c>
@@ -1891,7 +1891,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>25</v>
       </c>
@@ -1905,7 +1905,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>25</v>
       </c>
@@ -1919,7 +1919,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>25</v>
       </c>
@@ -1933,7 +1933,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>22</v>
       </c>
@@ -1947,7 +1947,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>20</v>
       </c>
@@ -1961,7 +1961,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>18</v>
       </c>
@@ -1975,7 +1975,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>16</v>
       </c>
@@ -1989,7 +1989,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>14</v>
       </c>
@@ -2003,7 +2003,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>10</v>
       </c>
@@ -2017,7 +2017,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>10</v>
       </c>
@@ -2031,7 +2031,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>4</v>
       </c>
@@ -2045,7 +2045,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>6</v>
       </c>
@@ -2059,7 +2059,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>4</v>
       </c>
@@ -2073,7 +2073,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>2</v>
       </c>
@@ -2087,7 +2087,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>93</v>
       </c>
@@ -2101,7 +2101,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>85</v>
       </c>
@@ -2115,7 +2115,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>95</v>
       </c>
@@ -2129,7 +2129,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>85</v>
       </c>
@@ -2143,7 +2143,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>37</v>
       </c>
@@ -2157,7 +2157,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>96</v>
       </c>
@@ -2171,7 +2171,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>99</v>
       </c>
@@ -2185,7 +2185,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>42</v>
       </c>
@@ -2199,7 +2199,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>99</v>
       </c>
@@ -2213,7 +2213,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>37</v>
       </c>
@@ -2227,7 +2227,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>41</v>
       </c>
@@ -2246,4 +2246,381 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A72"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="N51" sqref="N51"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>182</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>